--- a/finance/work/ibm.xlsx
+++ b/finance/work/ibm.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="599"/>
   </bookViews>
   <sheets>
-    <sheet name="aapl" sheetId="1" r:id="rId1"/>
+    <sheet name="ibm" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>P</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>IBM Bond</t>
+  </si>
+  <si>
+    <t>ROIC</t>
   </si>
 </sst>
 </file>
@@ -1399,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF17" workbookViewId="0">
-      <selection activeCell="AS38" sqref="AS38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS22" sqref="AS22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,73 +2575,71 @@
         <f>SUM(J10:M10)</f>
         <v>938</v>
       </c>
-      <c r="Z10">
-        <f>Y10*1.01</f>
-        <v>947.38</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" ref="AA10:AP10" si="19">Z10*1.01</f>
-        <v>956.85379999999998</v>
-      </c>
-      <c r="AB10">
+      <c r="Z10" s="7">
+        <v>700</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>800</v>
+      </c>
+      <c r="AB10" s="7">
+        <f t="shared" ref="AA10:AP10" si="19">1000+AA24*$AS$22</f>
+        <v>836.52863577599919</v>
+      </c>
+      <c r="AC10" s="7">
         <f t="shared" si="19"/>
-        <v>966.42233799999997</v>
-      </c>
-      <c r="AC10">
+        <v>1401.4826392066548</v>
+      </c>
+      <c r="AD10" s="7">
         <f t="shared" si="19"/>
-        <v>976.08656137999992</v>
-      </c>
-      <c r="AD10">
+        <v>1972.1686468380674</v>
+      </c>
+      <c r="AE10" s="7">
         <f t="shared" si="19"/>
-        <v>985.8474269937999</v>
-      </c>
-      <c r="AE10">
+        <v>2555.1249517034053</v>
+      </c>
+      <c r="AF10" s="7">
         <f t="shared" si="19"/>
-        <v>995.70590126373793</v>
-      </c>
-      <c r="AF10">
+        <v>3151.8262152155057</v>
+      </c>
+      <c r="AG10" s="7">
         <f t="shared" si="19"/>
-        <v>1005.6629602763753</v>
-      </c>
-      <c r="AG10">
+        <v>3768.3343214977831</v>
+      </c>
+      <c r="AH10" s="7">
         <f t="shared" si="19"/>
-        <v>1015.7195898791391</v>
-      </c>
-      <c r="AH10">
+        <v>4406.1667065849615</v>
+      </c>
+      <c r="AI10" s="7">
         <f t="shared" si="19"/>
-        <v>1025.8767857779305</v>
-      </c>
-      <c r="AI10">
+        <v>5066.9135353445236</v>
+      </c>
+      <c r="AJ10" s="7">
         <f t="shared" si="19"/>
-        <v>1036.1355536357098</v>
-      </c>
-      <c r="AJ10">
+        <v>5756.3821566508041</v>
+      </c>
+      <c r="AK10" s="7">
         <f t="shared" si="19"/>
-        <v>1046.4969091720668</v>
-      </c>
-      <c r="AK10">
+        <v>6476.346591483697</v>
+      </c>
+      <c r="AL10" s="7">
         <f t="shared" si="19"/>
-        <v>1056.9618782637874</v>
-      </c>
-      <c r="AL10">
+        <v>7228.6768939860231</v>
+      </c>
+      <c r="AM10" s="7">
         <f t="shared" si="19"/>
-        <v>1067.5314970464253</v>
-      </c>
-      <c r="AM10">
+        <v>8017.2928700277907</v>
+      </c>
+      <c r="AN10" s="7">
         <f t="shared" si="19"/>
-        <v>1078.2068120168897</v>
-      </c>
-      <c r="AN10">
+        <v>8844.3141896782181</v>
+      </c>
+      <c r="AO10" s="7">
         <f t="shared" si="19"/>
-        <v>1088.9888801370587</v>
-      </c>
-      <c r="AO10">
+        <v>9713.8681740397824</v>
+      </c>
+      <c r="AP10" s="7">
         <f t="shared" si="19"/>
-        <v>1099.8787689384292</v>
-      </c>
-      <c r="AP10">
-        <f t="shared" si="19"/>
-        <v>1110.8775566278134</v>
+        <v>10630.245819576894</v>
       </c>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.25">
@@ -2711,71 +2712,71 @@
       </c>
       <c r="Z11" s="6">
         <f t="shared" ref="Z11:AP11" si="25">Z9+Z10</f>
-        <v>11533.118799999995</v>
+        <v>11285.738799999996</v>
       </c>
       <c r="AA11" s="6">
         <f t="shared" si="25"/>
-        <v>10695.733495999993</v>
+        <v>10538.879695999993</v>
       </c>
       <c r="AB11" s="6">
         <f t="shared" si="25"/>
-        <v>10218.358049199993</v>
+        <v>10088.464346975992</v>
       </c>
       <c r="AC11" s="6">
         <f t="shared" si="25"/>
-        <v>9765.4254870199966</v>
+        <v>10190.821564846652</v>
       </c>
       <c r="AD11" s="6">
         <f t="shared" si="25"/>
-        <v>9423.6127956081928</v>
+        <v>10409.93401545246</v>
       </c>
       <c r="AE11" s="6">
         <f t="shared" si="25"/>
-        <v>9095.9606551335546</v>
+        <v>10655.379705573221</v>
       </c>
       <c r="AF11" s="6">
         <f t="shared" si="25"/>
-        <v>8862.9100715301029</v>
+        <v>11009.073326469234</v>
       </c>
       <c r="AG11" s="6">
         <f t="shared" si="25"/>
-        <v>8637.2492877952536</v>
+        <v>11389.864019413897</v>
       </c>
       <c r="AH11" s="6">
         <f t="shared" si="25"/>
-        <v>8418.7605927565637</v>
+        <v>11799.050513563594</v>
       </c>
       <c r="AI11" s="6">
         <f t="shared" si="25"/>
-        <v>8281.1616844747714</v>
+        <v>12311.939666183585</v>
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="25"/>
-        <v>8146.6225173943494</v>
+        <v>12856.507764873088</v>
       </c>
       <c r="AK11" s="6">
         <f t="shared" si="25"/>
-        <v>8015.0849743216231</v>
+        <v>13434.469687541532</v>
       </c>
       <c r="AL11" s="6">
         <f t="shared" si="25"/>
-        <v>7921.2827466633926</v>
+        <v>14082.428143602991</v>
       </c>
       <c r="AM11" s="6">
         <f t="shared" si="25"/>
-        <v>7829.151792889601</v>
+        <v>14768.237850900503</v>
       </c>
       <c r="AN11" s="6">
         <f t="shared" si="25"/>
-        <v>7772.4244112010447</v>
+        <v>15527.749720742204</v>
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="25"/>
-        <v>7749.8971223470935</v>
+        <v>16363.886527448447</v>
       </c>
       <c r="AP11" s="6">
         <f t="shared" si="25"/>
-        <v>7780.8459650967061</v>
+        <v>17300.214228045785</v>
       </c>
     </row>
     <row r="12" spans="1:118" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2844,71 +2845,71 @@
       </c>
       <c r="Z12">
         <f>0.2*Z11</f>
-        <v>2306.623759999999</v>
+        <v>2257.1477599999994</v>
       </c>
       <c r="AA12">
         <f>0.2*AA11</f>
-        <v>2139.1466991999987</v>
+        <v>2107.7759391999984</v>
       </c>
       <c r="AB12">
         <f t="shared" ref="AA12:AP12" si="27">AB11*0.2</f>
-        <v>2043.6716098399986</v>
+        <v>2017.6928693951986</v>
       </c>
       <c r="AC12">
         <f t="shared" si="27"/>
-        <v>1953.0850974039995</v>
+        <v>2038.1643129693305</v>
       </c>
       <c r="AD12">
         <f t="shared" si="27"/>
-        <v>1884.7225591216386</v>
+        <v>2081.9868030904922</v>
       </c>
       <c r="AE12">
         <f t="shared" si="27"/>
-        <v>1819.192131026711</v>
+        <v>2131.0759411146441</v>
       </c>
       <c r="AF12">
         <f t="shared" si="27"/>
-        <v>1772.5820143060207</v>
+        <v>2201.8146652938467</v>
       </c>
       <c r="AG12">
         <f t="shared" si="27"/>
-        <v>1727.4498575590508</v>
+        <v>2277.9728038827793</v>
       </c>
       <c r="AH12">
         <f t="shared" si="27"/>
-        <v>1683.7521185513128</v>
+        <v>2359.8101027127191</v>
       </c>
       <c r="AI12">
         <f t="shared" si="27"/>
-        <v>1656.2323368949544</v>
+        <v>2462.3879332367173</v>
       </c>
       <c r="AJ12">
         <f t="shared" si="27"/>
-        <v>1629.3245034788699</v>
+        <v>2571.3015529746176</v>
       </c>
       <c r="AK12">
         <f t="shared" si="27"/>
-        <v>1603.0169948643247</v>
+        <v>2686.8939375083064</v>
       </c>
       <c r="AL12">
         <f t="shared" si="27"/>
-        <v>1584.2565493326786</v>
+        <v>2816.4856287205985</v>
       </c>
       <c r="AM12">
         <f t="shared" si="27"/>
-        <v>1565.8303585779204</v>
+        <v>2953.647570180101</v>
       </c>
       <c r="AN12">
         <f t="shared" si="27"/>
-        <v>1554.4848822402091</v>
+        <v>3105.5499441484408</v>
       </c>
       <c r="AO12">
         <f t="shared" si="27"/>
-        <v>1549.9794244694187</v>
+        <v>3272.7773054896898</v>
       </c>
       <c r="AP12">
         <f t="shared" si="27"/>
-        <v>1556.1691930193413</v>
+        <v>3460.0428456091572</v>
       </c>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.25">
@@ -2974,375 +2975,375 @@
       </c>
       <c r="Z13" s="6">
         <f>Z11-Z12</f>
-        <v>9226.4950399999962</v>
+        <v>9028.5910399999957</v>
       </c>
       <c r="AA13" s="6">
         <f t="shared" ref="AA13:AP13" si="35">AA11-AA12</f>
-        <v>8556.5867967999948</v>
+        <v>8431.1037567999938</v>
       </c>
       <c r="AB13" s="6">
         <f t="shared" si="35"/>
-        <v>8174.6864393599944</v>
+        <v>8070.7714775807935</v>
       </c>
       <c r="AC13" s="6">
         <f t="shared" si="35"/>
-        <v>7812.3403896159971</v>
+        <v>8152.6572518773219</v>
       </c>
       <c r="AD13" s="6">
         <f t="shared" si="35"/>
-        <v>7538.8902364865544</v>
+        <v>8327.9472123619671</v>
       </c>
       <c r="AE13" s="6">
         <f t="shared" si="35"/>
-        <v>7276.7685241068439</v>
+        <v>8524.3037644585766</v>
       </c>
       <c r="AF13" s="6">
         <f t="shared" si="35"/>
-        <v>7090.3280572240819</v>
+        <v>8807.2586611753868</v>
       </c>
       <c r="AG13" s="6">
         <f t="shared" si="35"/>
-        <v>6909.7994302362031</v>
+        <v>9111.8912155311173</v>
       </c>
       <c r="AH13" s="6">
         <f t="shared" si="35"/>
-        <v>6735.0084742052513</v>
+        <v>9439.2404108508745</v>
       </c>
       <c r="AI13" s="6">
         <f t="shared" si="35"/>
-        <v>6624.9293475798167</v>
+        <v>9849.5517329468676</v>
       </c>
       <c r="AJ13" s="6">
         <f t="shared" si="35"/>
-        <v>6517.2980139154797</v>
+        <v>10285.20621189847</v>
       </c>
       <c r="AK13" s="6">
         <f t="shared" si="35"/>
-        <v>6412.0679794572989</v>
+        <v>10747.575750033226</v>
       </c>
       <c r="AL13" s="6">
         <f t="shared" si="35"/>
-        <v>6337.0261973307142</v>
+        <v>11265.942514882392</v>
       </c>
       <c r="AM13" s="6">
         <f t="shared" si="35"/>
-        <v>6263.3214343116806</v>
+        <v>11814.590280720402</v>
       </c>
       <c r="AN13" s="6">
         <f t="shared" si="35"/>
-        <v>6217.9395289608356</v>
+        <v>12422.199776593763</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="35"/>
-        <v>6199.917697877675</v>
+        <v>13091.109221958757</v>
       </c>
       <c r="AP13" s="6">
         <f t="shared" si="35"/>
-        <v>6224.6767720773651</v>
+        <v>13840.171382436627</v>
       </c>
       <c r="AQ13" s="6">
         <f>AP13*(1+$AS$23)</f>
-        <v>6286.9235397981383</v>
+        <v>13978.573096260994</v>
       </c>
       <c r="AR13" s="6">
         <f t="shared" ref="AR13:DC13" si="36">AQ13*(1+$AS$23)</f>
-        <v>6349.7927751961197</v>
+        <v>14118.358827223605</v>
       </c>
       <c r="AS13" s="6">
         <f t="shared" si="36"/>
-        <v>6413.2907029480812</v>
+        <v>14259.54241549584</v>
       </c>
       <c r="AT13" s="6">
         <f t="shared" si="36"/>
-        <v>6477.4236099775617</v>
+        <v>14402.137839650799</v>
       </c>
       <c r="AU13" s="6">
         <f t="shared" si="36"/>
-        <v>6542.1978460773371</v>
+        <v>14546.159218047307</v>
       </c>
       <c r="AV13" s="6">
         <f t="shared" si="36"/>
-        <v>6607.6198245381102</v>
+        <v>14691.62081022778</v>
       </c>
       <c r="AW13" s="6">
         <f t="shared" si="36"/>
-        <v>6673.6960227834916</v>
+        <v>14838.537018330058</v>
       </c>
       <c r="AX13" s="6">
         <f t="shared" si="36"/>
-        <v>6740.4329830113265</v>
+        <v>14986.92238851336</v>
       </c>
       <c r="AY13" s="6">
         <f t="shared" si="36"/>
-        <v>6807.8373128414396</v>
+        <v>15136.791612398494</v>
       </c>
       <c r="AZ13" s="6">
         <f t="shared" si="36"/>
-        <v>6875.9156859698542</v>
+        <v>15288.159528522479</v>
       </c>
       <c r="BA13" s="6">
         <f t="shared" si="36"/>
-        <v>6944.6748428295532</v>
+        <v>15441.041123807705</v>
       </c>
       <c r="BB13" s="6">
         <f t="shared" si="36"/>
-        <v>7014.1215912578491</v>
+        <v>15595.451535045782</v>
       </c>
       <c r="BC13" s="6">
         <f t="shared" si="36"/>
-        <v>7084.2628071704275</v>
+        <v>15751.406050396241</v>
       </c>
       <c r="BD13" s="6">
         <f t="shared" si="36"/>
-        <v>7155.1054352421315</v>
+        <v>15908.920110900204</v>
       </c>
       <c r="BE13" s="6">
         <f t="shared" si="36"/>
-        <v>7226.656489594553</v>
+        <v>16068.009312009206</v>
       </c>
       <c r="BF13" s="6">
         <f t="shared" si="36"/>
-        <v>7298.9230544904985</v>
+        <v>16228.689405129298</v>
       </c>
       <c r="BG13" s="6">
         <f t="shared" si="36"/>
-        <v>7371.9122850354033</v>
+        <v>16390.976299180591</v>
       </c>
       <c r="BH13" s="6">
         <f t="shared" si="36"/>
-        <v>7445.6314078857577</v>
+        <v>16554.886062172398</v>
       </c>
       <c r="BI13" s="6">
         <f t="shared" si="36"/>
-        <v>7520.0877219646154</v>
+        <v>16720.434922794124</v>
       </c>
       <c r="BJ13" s="6">
         <f t="shared" si="36"/>
-        <v>7595.2885991842613</v>
+        <v>16887.639272022065</v>
       </c>
       <c r="BK13" s="6">
         <f t="shared" si="36"/>
-        <v>7671.2414851761041</v>
+        <v>17056.515664742285</v>
       </c>
       <c r="BL13" s="6">
         <f t="shared" si="36"/>
-        <v>7747.9539000278655</v>
+        <v>17227.080821389707</v>
       </c>
       <c r="BM13" s="6">
         <f t="shared" si="36"/>
-        <v>7825.4334390281447</v>
+        <v>17399.351629603603</v>
       </c>
       <c r="BN13" s="6">
         <f t="shared" si="36"/>
-        <v>7903.6877734184263</v>
+        <v>17573.345145899639</v>
       </c>
       <c r="BO13" s="6">
         <f t="shared" si="36"/>
-        <v>7982.7246511526109</v>
+        <v>17749.078597358635</v>
       </c>
       <c r="BP13" s="6">
         <f t="shared" si="36"/>
-        <v>8062.551897664137</v>
+        <v>17926.569383332222</v>
       </c>
       <c r="BQ13" s="6">
         <f t="shared" si="36"/>
-        <v>8143.1774166407786</v>
+        <v>18105.835077165546</v>
       </c>
       <c r="BR13" s="6">
         <f t="shared" si="36"/>
-        <v>8224.6091908071867</v>
+        <v>18286.893427937201</v>
       </c>
       <c r="BS13" s="6">
         <f t="shared" si="36"/>
-        <v>8306.855282715258</v>
+        <v>18469.762362216574</v>
       </c>
       <c r="BT13" s="6">
         <f t="shared" si="36"/>
-        <v>8389.9238355424113</v>
+        <v>18654.459985838741</v>
       </c>
       <c r="BU13" s="6">
         <f t="shared" si="36"/>
-        <v>8473.8230738978364</v>
+        <v>18841.00458569713</v>
       </c>
       <c r="BV13" s="6">
         <f t="shared" si="36"/>
-        <v>8558.5613046368144</v>
+        <v>19029.4146315541</v>
       </c>
       <c r="BW13" s="6">
         <f t="shared" si="36"/>
-        <v>8644.1469176831833</v>
+        <v>19219.70877786964</v>
       </c>
       <c r="BX13" s="6">
         <f t="shared" si="36"/>
-        <v>8730.5883868600158</v>
+        <v>19411.905865648336</v>
       </c>
       <c r="BY13" s="6">
         <f t="shared" si="36"/>
-        <v>8817.8942707286169</v>
+        <v>19606.02492430482</v>
       </c>
       <c r="BZ13" s="6">
         <f t="shared" si="36"/>
-        <v>8906.0732134359023</v>
+        <v>19802.085173547868</v>
       </c>
       <c r="CA13" s="6">
         <f t="shared" si="36"/>
-        <v>8995.1339455702619</v>
+        <v>20000.106025283349</v>
       </c>
       <c r="CB13" s="6">
         <f t="shared" si="36"/>
-        <v>9085.0852850259653</v>
+        <v>20200.107085536183</v>
       </c>
       <c r="CC13" s="6">
         <f t="shared" si="36"/>
-        <v>9175.9361378762242</v>
+        <v>20402.108156391547</v>
       </c>
       <c r="CD13" s="6">
         <f t="shared" si="36"/>
-        <v>9267.6954992549872</v>
+        <v>20606.129237955462</v>
       </c>
       <c r="CE13" s="6">
         <f t="shared" si="36"/>
-        <v>9360.3724542475375</v>
+        <v>20812.190530335018</v>
       </c>
       <c r="CF13" s="6">
         <f t="shared" si="36"/>
-        <v>9453.9761787900134</v>
+        <v>21020.312435638367</v>
       </c>
       <c r="CG13" s="6">
         <f t="shared" si="36"/>
-        <v>9548.5159405779141</v>
+        <v>21230.51555999475</v>
       </c>
       <c r="CH13" s="6">
         <f t="shared" si="36"/>
-        <v>9644.0010999836941</v>
+        <v>21442.820715594698</v>
       </c>
       <c r="CI13" s="6">
         <f t="shared" si="36"/>
-        <v>9740.441110983531</v>
+        <v>21657.248922750645</v>
       </c>
       <c r="CJ13" s="6">
         <f t="shared" si="36"/>
-        <v>9837.8455220933665</v>
+        <v>21873.821411978151</v>
       </c>
       <c r="CK13" s="6">
         <f t="shared" si="36"/>
-        <v>9936.223977314301</v>
+        <v>22092.559626097933</v>
       </c>
       <c r="CL13" s="6">
         <f t="shared" si="36"/>
-        <v>10035.586217087444</v>
+        <v>22313.485222358911</v>
       </c>
       <c r="CM13" s="6">
         <f t="shared" si="36"/>
-        <v>10135.942079258319</v>
+        <v>22536.620074582501</v>
       </c>
       <c r="CN13" s="6">
         <f t="shared" si="36"/>
-        <v>10237.301500050902</v>
+        <v>22761.986275328327</v>
       </c>
       <c r="CO13" s="6">
         <f t="shared" si="36"/>
-        <v>10339.674515051411</v>
+        <v>22989.60613808161</v>
       </c>
       <c r="CP13" s="6">
         <f t="shared" si="36"/>
-        <v>10443.071260201925</v>
+        <v>23219.502199462426</v>
       </c>
       <c r="CQ13" s="6">
         <f t="shared" si="36"/>
-        <v>10547.501972803944</v>
+        <v>23451.697221457049</v>
       </c>
       <c r="CR13" s="6">
         <f t="shared" si="36"/>
-        <v>10652.976992531983</v>
+        <v>23686.214193671618</v>
       </c>
       <c r="CS13" s="6">
         <f t="shared" si="36"/>
-        <v>10759.506762457304</v>
+        <v>23923.076335608333</v>
       </c>
       <c r="CT13" s="6">
         <f t="shared" si="36"/>
-        <v>10867.101830081878</v>
+        <v>24162.307098964418</v>
       </c>
       <c r="CU13" s="6">
         <f t="shared" si="36"/>
-        <v>10975.772848382696</v>
+        <v>24403.930169954063</v>
       </c>
       <c r="CV13" s="6">
         <f t="shared" si="36"/>
-        <v>11085.530576866522</v>
+        <v>24647.969471653603</v>
       </c>
       <c r="CW13" s="6">
         <f t="shared" si="36"/>
-        <v>11196.385882635188</v>
+        <v>24894.449166370141</v>
       </c>
       <c r="CX13" s="6">
         <f t="shared" si="36"/>
-        <v>11308.349741461539</v>
+        <v>25143.393658033841</v>
       </c>
       <c r="CY13" s="6">
         <f t="shared" si="36"/>
-        <v>11421.433238876154</v>
+        <v>25394.82759461418</v>
       </c>
       <c r="CZ13" s="6">
         <f t="shared" si="36"/>
-        <v>11535.647571264915</v>
+        <v>25648.775870560323</v>
       </c>
       <c r="DA13" s="6">
         <f t="shared" si="36"/>
-        <v>11651.004046977565</v>
+        <v>25905.263629265926</v>
       </c>
       <c r="DB13" s="6">
         <f t="shared" si="36"/>
-        <v>11767.51408744734</v>
+        <v>26164.316265558587</v>
       </c>
       <c r="DC13" s="6">
         <f t="shared" si="36"/>
-        <v>11885.189228321813</v>
+        <v>26425.959428214173</v>
       </c>
       <c r="DD13" s="6">
         <f t="shared" ref="DD13:DN13" si="37">DC13*(1+$AS$23)</f>
-        <v>12004.041120605032</v>
+        <v>26690.219022496316</v>
       </c>
       <c r="DE13" s="6">
         <f t="shared" si="37"/>
-        <v>12124.081531811082</v>
+        <v>26957.121212721278</v>
       </c>
       <c r="DF13" s="6">
         <f t="shared" si="37"/>
-        <v>12245.322347129193</v>
+        <v>27226.69242484849</v>
       </c>
       <c r="DG13" s="6">
         <f t="shared" si="37"/>
-        <v>12367.775570600485</v>
+        <v>27498.959349096975</v>
       </c>
       <c r="DH13" s="6">
         <f t="shared" si="37"/>
-        <v>12491.45332630649</v>
+        <v>27773.948942587944</v>
       </c>
       <c r="DI13" s="6">
         <f t="shared" si="37"/>
-        <v>12616.367859569555</v>
+        <v>28051.688432013823</v>
       </c>
       <c r="DJ13" s="6">
         <f t="shared" si="37"/>
-        <v>12742.531538165251</v>
+        <v>28332.205316333962</v>
       </c>
       <c r="DK13" s="6">
         <f t="shared" si="37"/>
-        <v>12869.956853546904</v>
+        <v>28615.527369497304</v>
       </c>
       <c r="DL13" s="6">
         <f t="shared" si="37"/>
-        <v>12998.656422082373</v>
+        <v>28901.682643192278</v>
       </c>
       <c r="DM13" s="6">
         <f t="shared" si="37"/>
-        <v>13128.642986303197</v>
+        <v>29190.6994696242</v>
       </c>
       <c r="DN13" s="6">
         <f t="shared" si="37"/>
-        <v>13259.929416166229</v>
+        <v>29482.606464320441</v>
       </c>
     </row>
     <row r="14" spans="1:118" x14ac:dyDescent="0.25">
@@ -3528,71 +3529,71 @@
       </c>
       <c r="Z15" s="1">
         <f>Z13/Z14</f>
-        <v>9.6808749551343016</v>
+        <v>9.4732247186344303</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" ref="AA15" si="44">AA13/AA14</f>
-        <v>9.0686621652861614</v>
+        <v>8.93566949843696</v>
       </c>
       <c r="AB15" s="1">
         <f t="shared" ref="AB15" si="45">AB13/AB14</f>
-        <v>8.7074439134638126</v>
+        <v>8.5967566463528104</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" ref="AC15" si="46">AC13/AC14</f>
-        <v>8.3632996868210991</v>
+        <v>8.7276171340425677</v>
       </c>
       <c r="AD15" s="1">
         <f t="shared" ref="AD15" si="47">AD13/AD14</f>
-        <v>8.1111202733299201</v>
+        <v>8.9600696323297679</v>
       </c>
       <c r="AE15" s="1">
         <f t="shared" ref="AE15" si="48">AE13/AE14</f>
-        <v>7.8684447639462727</v>
+        <v>9.2174174703426051</v>
       </c>
       <c r="AF15" s="1">
         <f t="shared" ref="AF15" si="49">AF13/AF14</f>
-        <v>7.7053716246846724</v>
+        <v>9.5712356933803306</v>
       </c>
       <c r="AG15" s="1">
         <f t="shared" ref="AG15" si="50">AG13/AG14</f>
-        <v>7.5469178076847596</v>
+        <v>9.9520535683374263</v>
       </c>
       <c r="AH15" s="1">
         <f t="shared" ref="AH15" si="51">AH13/AH14</f>
-        <v>7.3929751190284838</v>
+        <v>10.361392976299621</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" ref="AI15" si="52">AI13/AI14</f>
-        <v>7.3086854027159509</v>
+        <v>10.866119651552566</v>
       </c>
       <c r="AJ15" s="1">
         <f t="shared" ref="AJ15" si="53">AJ13/AJ14</f>
-        <v>7.2260758655926143</v>
+        <v>11.403756621494679</v>
       </c>
       <c r="AK15" s="1">
         <f t="shared" ref="AK15" si="54">AK13/AK14</f>
-        <v>7.1451273513885054</v>
+        <v>11.976291845112623</v>
       </c>
       <c r="AL15" s="1">
         <f t="shared" ref="AL15" si="55">AL13/AL14</f>
-        <v>7.0969913779187515</v>
+        <v>12.617005895592957</v>
       </c>
       <c r="AM15" s="1">
         <f t="shared" ref="AM15" si="56">AM13/AM14</f>
-        <v>7.049696082850752</v>
+        <v>13.297939710743012</v>
       </c>
       <c r="AN15" s="1">
         <f t="shared" ref="AN15" si="57">AN13/AN14</f>
-        <v>7.0337852996872305</v>
+        <v>14.052096481707927</v>
       </c>
       <c r="AO15" s="1">
         <f t="shared" ref="AO15" si="58">AO13/AO14</f>
-        <v>7.0486420636665832</v>
+        <v>14.883188393539317</v>
       </c>
       <c r="AP15" s="1">
         <f t="shared" ref="AP15" si="59">AP13/AP14</f>
-        <v>7.1123522391422318</v>
+        <v>15.813861108989636</v>
       </c>
     </row>
     <row r="16" spans="1:118" x14ac:dyDescent="0.25">
@@ -3941,71 +3942,71 @@
       </c>
       <c r="Z19" s="2">
         <f>Z13/Z2</f>
-        <v>0.12403818816091722</v>
+        <v>0.12137762708291569</v>
       </c>
       <c r="AA19" s="2">
         <f>AA13/AA2</f>
-        <v>0.12503494114025782</v>
+        <v>0.12320129357808168</v>
       </c>
       <c r="AB19" s="2">
         <f>AB13/AB2</f>
-        <v>0.12574141167298342</v>
+        <v>0.12414301226219406</v>
       </c>
       <c r="AC19" s="2">
         <f>AC13/AC2</f>
-        <v>0.12649250139724966</v>
+        <v>0.1320026979616897</v>
       </c>
       <c r="AD19" s="2">
         <f>AD13/AD2</f>
-        <v>0.12715100888119829</v>
+        <v>0.14045925285346544</v>
       </c>
       <c r="AE19" s="2">
         <f>AE13/AE2</f>
-        <v>0.12784381362993594</v>
+        <v>0.14976146323441888</v>
       </c>
       <c r="AF19" s="2">
         <f>AF13/AF2</f>
-        <v>0.12842091284331747</v>
+        <v>0.15951817571585913</v>
       </c>
       <c r="AG19" s="2">
         <f>AG13/AG2</f>
-        <v>0.12902180996240536</v>
+        <v>0.17013991631421047</v>
       </c>
       <c r="AH19" s="2">
         <f>AH13/AH2</f>
-        <v>0.12964748634413611</v>
+        <v>0.18170337824396207</v>
       </c>
       <c r="AI19" s="2">
         <f>AI13/AI2</f>
-        <v>0.13013110864940247</v>
+        <v>0.1934712084403217</v>
       </c>
       <c r="AJ19" s="2">
         <f>AJ13/AJ2</f>
-        <v>0.13062953571911579</v>
+        <v>0.20615164587639906</v>
       </c>
       <c r="AK19" s="2">
         <f>AK13/AK2</f>
-        <v>0.1311432207603509</v>
+        <v>0.219815464174866</v>
       </c>
       <c r="AL19" s="2">
         <f>AL13/AL2</f>
-        <v>0.13158215637088172</v>
+        <v>0.2339262871097228</v>
       </c>
       <c r="AM19" s="2">
         <f>AM13/AM2</f>
-        <v>0.13203223247914175</v>
+        <v>0.24905423535257434</v>
       </c>
       <c r="AN19" s="2">
         <f>AN13/AN2</f>
-        <v>0.13239956732305505</v>
+        <v>0.26450785955077188</v>
       </c>
       <c r="AO19" s="2">
         <f>AO13/AO2</f>
-        <v>0.13267922173940105</v>
+        <v>0.2801518129618974</v>
       </c>
       <c r="AP19" s="2">
         <f>AP13/AP2</f>
-        <v>0.13281063793903994</v>
+        <v>0.29529597403876368</v>
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
@@ -4079,7 +4080,7 @@
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="75"/>
-        <v>0.2</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="75"/>
@@ -4091,11 +4092,11 @@
       </c>
       <c r="AD20" s="2">
         <f t="shared" si="75"/>
-        <v>0.2</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="AE20" s="2">
         <f t="shared" si="75"/>
-        <v>0.2</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="AF20" s="2">
         <f t="shared" si="75"/>
@@ -4103,7 +4104,7 @@
       </c>
       <c r="AG20" s="2">
         <f t="shared" si="75"/>
-        <v>0.2</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="AH20" s="2">
         <f t="shared" si="75"/>
@@ -4123,7 +4124,7 @@
       </c>
       <c r="AL20" s="2">
         <f t="shared" si="75"/>
-        <v>0.2</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="AM20" s="2">
         <f t="shared" si="75"/>
@@ -4292,6 +4293,12 @@
       <c r="AP22" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="AR22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS22" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="AV22" t="s">
         <v>66</v>
       </c>
@@ -4337,71 +4344,71 @@
       </c>
       <c r="Z24" s="7">
         <f>Y24+Z13</f>
-        <v>-10568.504960000004</v>
+        <v>-10766.408960000004</v>
       </c>
       <c r="AA24" s="7">
         <f>Z24+AA13</f>
-        <v>-2011.9181632000091</v>
+        <v>-2335.3052032000105</v>
       </c>
       <c r="AB24" s="7">
         <f t="shared" ref="AB24:AP24" si="76">AA24+AB13</f>
-        <v>6162.7682761599854</v>
+        <v>5735.466274380783</v>
       </c>
       <c r="AC24" s="7">
         <f t="shared" si="76"/>
-        <v>13975.108665775982</v>
+        <v>13888.123526258105</v>
       </c>
       <c r="AD24" s="7">
         <f t="shared" si="76"/>
-        <v>21513.998902262538</v>
+        <v>22216.070738620074</v>
       </c>
       <c r="AE24" s="7">
         <f t="shared" si="76"/>
-        <v>28790.767426369381</v>
+        <v>30740.374503078652</v>
       </c>
       <c r="AF24" s="7">
         <f t="shared" si="76"/>
-        <v>35881.095483593461</v>
+        <v>39547.633164254039</v>
       </c>
       <c r="AG24" s="7">
         <f t="shared" si="76"/>
-        <v>42790.894913829667</v>
+        <v>48659.524379785158</v>
       </c>
       <c r="AH24" s="7">
         <f t="shared" si="76"/>
-        <v>49525.903388034916</v>
+        <v>58098.764790636036</v>
       </c>
       <c r="AI24" s="7">
         <f t="shared" si="76"/>
-        <v>56150.832735614735</v>
+        <v>67948.316523582907</v>
       </c>
       <c r="AJ24" s="7">
         <f t="shared" si="76"/>
-        <v>62668.130749530217</v>
+        <v>78233.522735481383</v>
       </c>
       <c r="AK24" s="7">
         <f t="shared" si="76"/>
-        <v>69080.198728987511</v>
+        <v>88981.098485514609</v>
       </c>
       <c r="AL24" s="7">
         <f t="shared" si="76"/>
-        <v>75417.224926318231</v>
+        <v>100247.041000397</v>
       </c>
       <c r="AM24" s="7">
         <f t="shared" si="76"/>
-        <v>81680.546360629916</v>
+        <v>112061.6312811174</v>
       </c>
       <c r="AN24" s="7">
         <f t="shared" si="76"/>
-        <v>87898.485889590753</v>
+        <v>124483.83105771116</v>
       </c>
       <c r="AO24" s="7">
         <f t="shared" si="76"/>
-        <v>94098.403587468434</v>
+        <v>137574.94027966991</v>
       </c>
       <c r="AP24" s="7">
         <f t="shared" si="76"/>
-        <v>100323.0803595458</v>
+        <v>151415.11166210653</v>
       </c>
       <c r="AR24" s="4" t="s">
         <v>83</v>
@@ -4452,7 +4459,7 @@
       </c>
       <c r="AS25" s="7">
         <f>NPV(AS24, Z13:DN13)</f>
-        <v>163475.05605567919</v>
+        <v>288713.89153392497</v>
       </c>
       <c r="AU25" t="s">
         <v>62</v>
@@ -4528,7 +4535,7 @@
       </c>
       <c r="AS27" s="7">
         <f>AS25+AS26</f>
-        <v>143680.05605567919</v>
+        <v>268918.89153392497</v>
       </c>
       <c r="AU27" t="s">
         <v>64</v>
@@ -4562,7 +4569,7 @@
       </c>
       <c r="AS28" s="9">
         <f>AS27/B4</f>
-        <v>149.6726726758296</v>
+        <v>280.13497721149542</v>
       </c>
       <c r="AU28" t="s">
         <v>65</v>
@@ -4797,7 +4804,7 @@
       </c>
       <c r="AS35" s="7">
         <f>Z11</f>
-        <v>11533.118799999995</v>
+        <v>11285.738799999996</v>
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
@@ -4824,7 +4831,7 @@
       </c>
       <c r="AS36">
         <f>AS34/AS35</f>
-        <v>14.4322082358191</v>
+        <v>14.748557899465128</v>
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
@@ -4856,7 +4863,7 @@
       </c>
       <c r="AS37" s="25">
         <f>AS35/AS34</f>
-        <v>6.928946587107257E-2</v>
+        <v>6.7803239260176493E-2</v>
       </c>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.25">
